--- a/va_facility_data_2025-02-20/Corpus Christi VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Corpus%20Christi%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Corpus Christi VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Corpus%20Christi%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8b5e9a5d7ba74232abebe6917e8050e3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6b4e2964eef49c690f451248316ee40"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbd35d2cf0f6e4fb1a9caebd3d9c6b965"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcdca4474313943b3bf548c5f6e43d49e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R64546a8d7028431eaf873a9d59f8ad69"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1cae23977f0b4f879b60ddec10cf556a"/>
   </x:sheets>
 </x:workbook>
 </file>
